--- a/biology/Zoologie/Dicya/Dicya.xlsx
+++ b/biology/Zoologie/Dicya/Dicya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicya est un genre d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Kurt Johnson (d) en 1991.
 </t>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dicya carnica (Hewitson, 1873) présent en Bolivie, au Brésil, en Guyane et au Mexique
 Dicya dicaea (Hewitson, 1874) présent au Brésil et au Paraguay
 Dicya eumorpha (Hayward, 1949) présent en Argentine
-Dicya iambe (Godman &amp; Salvin, [1887]) présent en Bolivie, au Costa Rica, en Équateur et en Guyane.
-Dicya lollia (Godman &amp; Salvin, [1887]) présent au Costa Rica et au Guatemala
-Dicya lucagus (Godman &amp; Salvin, [1887]) présent au Mexique[1],[2].</t>
+Dicya iambe (Godman &amp; Salvin, ) présent en Bolivie, au Costa Rica, en Équateur et en Guyane.
+Dicya lollia (Godman &amp; Salvin, ) présent au Costa Rica et au Guatemala
+Dicya lucagus (Godman &amp; Salvin, ) présent au Mexique,.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dicya sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dicya sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Dicya, sur Wikimedia CommonsDicya, sur Wikispecies
 </t>
